--- a/recruiters.xlsx
+++ b/recruiters.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Projects\ColdContactXLSX-main\ColdContactXLSX-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Projects\Cold-Email-Bomber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE31D646-0049-4545-82F7-A803C76CC2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C1C3BD-478D-4597-B83F-C2C840F3115D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3BD9C224-F778-4AA6-AC3B-75F59DCBB6DE}"/>
   </bookViews>
@@ -38,19 +38,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Bhuvan</t>
-  </si>
-  <si>
-    <t>Thirwani</t>
-  </si>
-  <si>
     <t>Google</t>
   </si>
   <si>
     <t>Software Intern</t>
   </si>
   <si>
-    <t>sho.aibthakur23@gmail.com</t>
+    <t>Bhag</t>
+  </si>
+  <si>
+    <t>1csdv</t>
+  </si>
+  <si>
+    <t>shoaibthakur23@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,31 +461,31 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
+      <c r="C2" s="3"/>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
+      <c r="C3" s="3"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
